--- a/files/1039963987_1_1_1_ .xlsx
+++ b/files/1039963987_1_1_1_ .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amplifon-my.sharepoint.com/personal/alisa_aleksanyan_amplifon_com/Documents/Documentos/python_alisa/saturation/Saturation/Satapp/agenda_app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{B6ED0871-920A-42F2-9B81-74240C15722E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C86AA76-259E-4709-9592-04B91BACB6D7}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{B6ED0871-920A-42F2-9B81-74240C15722E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B6AFF96-D52A-4413-A21D-F4C2934E83E2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6767,7 +6767,7 @@
   <dimension ref="B1:H4107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3696" sqref="D3696"/>
+      <selection activeCell="B3225" sqref="B3225:C3227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -80726,7 +80726,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3225" spans="2:8" hidden="1">
+    <row r="3225" spans="2:8">
       <c r="B3225" t="s">
         <v>1727</v>
       </c>
@@ -80743,7 +80743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3226" spans="2:8" hidden="1">
+    <row r="3226" spans="2:8">
       <c r="B3226" t="s">
         <v>1727</v>
       </c>
@@ -80760,7 +80760,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3227" spans="2:8" hidden="1">
+    <row r="3227" spans="2:8">
       <c r="B3227" t="s">
         <v>1727</v>
       </c>
@@ -91448,7 +91448,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3693" spans="2:8">
+    <row r="3693" spans="2:8" hidden="1">
       <c r="B3693" t="s">
         <v>1892</v>
       </c>
@@ -91471,7 +91471,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="3694" spans="2:8">
+    <row r="3694" spans="2:8" hidden="1">
       <c r="B3694" t="s">
         <v>1892</v>
       </c>
@@ -91494,7 +91494,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="3695" spans="2:8">
+    <row r="3695" spans="2:8" hidden="1">
       <c r="B3695" t="s">
         <v>1892</v>
       </c>
@@ -91517,7 +91517,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3696" spans="2:8">
+    <row r="3696" spans="2:8" hidden="1">
       <c r="B3696" t="s">
         <v>1892</v>
       </c>
@@ -100949,7 +100949,7 @@
   <autoFilter ref="B8:H4107" xr:uid="{FF93D9F3-1A32-4D84-97FA-80FC5EBBA240}">
     <filterColumn colId="0">
       <filters>
-        <filter val="53372"/>
+        <filter val="4375"/>
       </filters>
     </filterColumn>
   </autoFilter>
